--- a/TOC_Coefficient.xlsx
+++ b/TOC_Coefficient.xlsx
@@ -11,6 +11,44 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Se</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,92 +404,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:11">
       <c r="A2">
-        <v>0</v>
+        <v>0.2682001495747451</v>
       </c>
       <c r="B2">
-        <v>-1.05592091330488</v>
+        <v>0.01221475939052942</v>
       </c>
       <c r="C2">
-        <v>1.225050026895062</v>
+        <v>0.01275820596259933</v>
       </c>
       <c r="D2">
-        <v>3.365842288434912</v>
+        <v>0.0008352565960558494</v>
       </c>
       <c r="E2">
-        <v>-2.880976419943609</v>
+        <v>-0.01211497489420934</v>
       </c>
       <c r="F2">
-        <v>-3.583201329577955</v>
+        <v>0.0001016548377703059</v>
       </c>
       <c r="G2">
-        <v>0.8606680851248691</v>
+        <v>-0.01021214739590877</v>
       </c>
       <c r="H2">
-        <v>-2.331860073212858</v>
+        <v>-0.0271047762603661</v>
       </c>
       <c r="I2">
-        <v>4.293123076429969</v>
+        <v>0.01405708224891878</v>
       </c>
       <c r="J2">
-        <v>0.7173280842269449</v>
+        <v>1.129361061412857</v>
       </c>
       <c r="K2">
-        <v>0.2643477139404651</v>
-      </c>
-      <c r="L2">
-        <v>-1.026863582362128</v>
-      </c>
-      <c r="M2">
-        <v>1.796903006838948</v>
+        <v>0.09344168816778768</v>
       </c>
     </row>
   </sheetData>
